--- a/C_sling-bag_filled.xlsx
+++ b/C_sling-bag_filled.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="817">
   <si>
     <t>General guidelines</t>
   </si>
@@ -2760,7 +2760,7 @@
     <t>Supplier Image refers to the name of the image that you will upload.</t>
   </si>
   <si>
-    <t>Value for G</t>
+    <t>SKU12345</t>
   </si>
   <si>
     <t>Seller</t>
@@ -2772,25 +2772,19 @@
     <t>India</t>
   </si>
   <si>
-    <t>AA_value</t>
-  </si>
-  <si>
-    <t>AB_value</t>
-  </si>
-  <si>
-    <t>GST_12</t>
-  </si>
-  <si>
-    <t>BrandX</t>
+    <t>ManufacturerX</t>
+  </si>
+  <si>
+    <t>PackerY</t>
+  </si>
+  <si>
+    <t>GST_18</t>
   </si>
   <si>
     <t>ModelX</t>
   </si>
   <si>
-    <t>AH_value</t>
-  </si>
-  <si>
-    <t>AJ_value</t>
+    <t>StyleA</t>
   </si>
   <si>
     <t>cm</t>
@@ -8792,44 +8786,44 @@
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="43">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="K5" s="43">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>495</v>
       </c>
       <c r="M5" s="43"/>
       <c r="N5" s="43">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O5" s="43">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="P5" s="43" t="s">
         <v>496</v>
       </c>
       <c r="Q5" s="43">
+        <v>30</v>
+      </c>
+      <c r="R5" s="43">
+        <v>50</v>
+      </c>
+      <c r="S5" s="43">
+        <v>70</v>
+      </c>
+      <c r="T5" s="43">
+        <v>10</v>
+      </c>
+      <c r="U5" s="43">
         <v>1</v>
       </c>
-      <c r="R5" s="43">
-        <v>2</v>
-      </c>
-      <c r="S5" s="43">
-        <v>3</v>
-      </c>
-      <c r="T5" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="U5" s="43">
-        <v>2.5</v>
-      </c>
       <c r="V5" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W5" s="43">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="X5" s="43"/>
       <c r="Y5" s="43"/>
@@ -8848,22 +8842,22 @@
       </c>
       <c r="AE5" s="43"/>
       <c r="AF5" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG5" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="AG5" s="43" t="s">
+      <c r="AH5" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI5" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ5" s="43" t="s">
         <v>502</v>
       </c>
-      <c r="AH5" s="43" t="s">
-        <v>503</v>
-      </c>
-      <c r="AI5" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ5" s="43" t="s">
-        <v>504</v>
-      </c>
       <c r="AK5" s="43" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AL5" s="43" t="s">
         <v>153</v>
@@ -8875,22 +8869,22 @@
         <v>146</v>
       </c>
       <c r="AO5" s="43">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="43">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AQ5" s="43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AR5" s="43">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="AS5" s="43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AT5" s="43" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AU5" s="43"/>
       <c r="AV5" s="43"/>
@@ -48714,1232 +48708,1232 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -49970,12 +49964,12 @@
     </row>
     <row r="2" spans="1:1" customHeight="1" ht="19.5">
       <c r="A2" s="79" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="3" spans="1:1" customHeight="1" ht="39.4">
       <c r="A3" s="80" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4" spans="1:1" customHeight="1" ht="13.7">
@@ -49983,12 +49977,12 @@
     </row>
     <row r="5" spans="1:1" customHeight="1" ht="19.5">
       <c r="A5" s="82" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:1" customHeight="1" ht="19.5">
       <c r="A6" s="83" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:1" customHeight="1" ht="13.7">
@@ -49996,12 +49990,12 @@
     </row>
     <row r="8" spans="1:1" customHeight="1" ht="19.5">
       <c r="A8" s="85" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:1" customHeight="1" ht="59.45">
       <c r="A9" s="86" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:1" customHeight="1" ht="19.5">
@@ -50009,27 +50003,27 @@
     </row>
     <row r="11" spans="1:1" customHeight="1" ht="19.5">
       <c r="A11" s="88" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:1" customHeight="1" ht="19.5">
       <c r="A12" s="89" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:1" customHeight="1" ht="19.5">
       <c r="A13" s="90" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:1" customHeight="1" ht="19.5">
       <c r="A14" s="91" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:1" customHeight="1" ht="19.5">
       <c r="A15" s="92" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:1" customHeight="1" ht="13.7">
@@ -50037,12 +50031,12 @@
     </row>
     <row r="17" spans="1:1" customHeight="1" ht="19.5">
       <c r="A17" s="94" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:1" customHeight="1" ht="139.5">
       <c r="A18" s="95" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:1" customHeight="1" ht="13.7">
@@ -50050,12 +50044,12 @@
     </row>
     <row r="20" spans="1:1" customHeight="1" ht="19.5">
       <c r="A20" s="97" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:1" customHeight="1" ht="39.4">
       <c r="A21" s="98" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:1" customHeight="1" ht="19.5">
@@ -50063,12 +50057,12 @@
     </row>
     <row r="23" spans="1:1" customHeight="1" ht="19.5">
       <c r="A23" s="100" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:1" customHeight="1" ht="139.5">
       <c r="A24" s="101" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:1" customHeight="1" ht="13.7">
@@ -50076,12 +50070,12 @@
     </row>
     <row r="26" spans="1:1" customHeight="1" ht="19.5">
       <c r="A26" s="103" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:1" customHeight="1" ht="79.5">
       <c r="A27" s="104" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:1" customHeight="1" ht="13.7">
@@ -50089,12 +50083,12 @@
     </row>
     <row r="29" spans="1:1" customHeight="1" ht="19.5">
       <c r="A29" s="106" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="1:1" customHeight="1" ht="39.4">
       <c r="A30" s="107" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:1" customHeight="1" ht="13.7">
@@ -50102,12 +50096,12 @@
     </row>
     <row r="32" spans="1:1" customHeight="1" ht="19.5">
       <c r="A32" s="109" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33" spans="1:1" customHeight="1" ht="59.45">
       <c r="A33" s="110" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="34" spans="1:1" customHeight="1" ht="13.7">
@@ -50115,12 +50109,12 @@
     </row>
     <row r="35" spans="1:1" customHeight="1" ht="19.5">
       <c r="A35" s="112" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="1:1" customHeight="1" ht="39.4">
       <c r="A36" s="113" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="37" spans="1:1" customHeight="1" ht="13.7">
@@ -50128,12 +50122,12 @@
     </row>
     <row r="38" spans="1:1" customHeight="1" ht="19.5">
       <c r="A38" s="115" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" spans="1:1" customHeight="1" ht="59.45">
       <c r="A39" s="116" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="40" spans="1:1" customHeight="1" ht="13.7">
@@ -50141,12 +50135,12 @@
     </row>
     <row r="41" spans="1:1" customHeight="1" ht="19.5">
       <c r="A41" s="118" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="42" spans="1:1" customHeight="1" ht="39.4">
       <c r="A42" s="119" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="43" spans="1:1" customHeight="1" ht="13.7">
@@ -50154,12 +50148,12 @@
     </row>
     <row r="44" spans="1:1" customHeight="1" ht="19.5">
       <c r="A44" s="121" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:1" customHeight="1" ht="39.4">
       <c r="A45" s="122" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="46" spans="1:1" customHeight="1" ht="13.7">
@@ -50167,12 +50161,12 @@
     </row>
     <row r="47" spans="1:1" customHeight="1" ht="19.5">
       <c r="A47" s="124" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="48" spans="1:1" customHeight="1" ht="59.45">
       <c r="A48" s="125" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -50201,62 +50195,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="126" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="137" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="136" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="135" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="126" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="127" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="128" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="128" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="128" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="128" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="128" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="128" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:1" customHeight="1" ht="15.75">
@@ -50264,57 +50258,57 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="126" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="130" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="131" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="131" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="131" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="131" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="131" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="131" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="131" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="131" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="128" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="26" spans="1:1" customHeight="1" ht="15.75">
@@ -50322,17 +50316,17 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="126" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="127" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="128" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="1:1" customHeight="1" ht="15.75">
@@ -50340,22 +50334,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="126" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="127" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:1" customHeight="1" ht="15.75">
       <c r="A33" s="132" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="34" spans="1:1" customHeight="1" ht="15.75">
       <c r="A34" s="132" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="35" spans="1:1" customHeight="1" ht="15.75">
@@ -50363,12 +50357,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="133" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="134" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -50398,7 +50392,7 @@
   <sheetData>
     <row r="1" spans="1:101">
       <c r="CW1" s="45" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
